--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77133.88436094708</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77133.88436094708</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959097286.3379576</v>
+        <v>35932684.35676576</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10571.30703766983</v>
+        <v>905675.3322516492</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19973.36719035429</v>
+        <v>1607497.582371668</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29364.2001794342</v>
+        <v>2309319.832491686</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38957.55400663939</v>
+        <v>3010438.658960915</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48550.90488352682</v>
+        <v>3711557.485430144</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58144.25871073199</v>
+        <v>4412676.311899372</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67737.61253793718</v>
+        <v>5113795.138368597</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77330.96341482463</v>
+        <v>5814913.964837822</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86924.31491985609</v>
+        <v>6516032.791307045</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96517.66874706128</v>
+        <v>7217151.61777627</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106110.9695263487</v>
+        <v>7918270.444245494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115704.3233535539</v>
+        <v>8619389.270714723</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125297.6771807591</v>
+        <v>9320508.097183958</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134891.0310079642</v>
+        <v>10021626.92365319</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144484.3777474688</v>
+        <v>10722745.75012243</v>
       </c>
     </row>
   </sheetData>
